--- a/src/main/AutomationExercise_TestCases.xlsx
+++ b/src/main/AutomationExercise_TestCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh\IdeaProjects\AutomationExercise\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B58EEC0-AB72-4138-8947-EC34DD735D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED11676E-477C-42C4-8F11-1D1E841C2BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="238">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -130,24 +130,6 @@
     <t>Validation error or successful signup as per spec</t>
   </si>
   <si>
-    <t>TC_Signup_07</t>
-  </si>
-  <si>
-    <t>Password masking</t>
-  </si>
-  <si>
-    <t>Check password field is masked during entry</t>
-  </si>
-  <si>
-    <t>On signup page</t>
-  </si>
-  <si>
-    <t>Password input is masked (hidden)</t>
-  </si>
-  <si>
-    <t>TC_Signup_08</t>
-  </si>
-  <si>
     <t>Signup email case insensitivity</t>
   </si>
   <si>
@@ -214,21 +196,6 @@
     <t>TC_Login_05</t>
   </si>
   <si>
-    <t>Login with SQL injection</t>
-  </si>
-  <si>
-    <t>Attempt SQL injection in login fields</t>
-  </si>
-  <si>
-    <t>SQL injection string (' OR 1=1 --)</t>
-  </si>
-  <si>
-    <t>Error or no unauthorized access</t>
-  </si>
-  <si>
-    <t>TC_Login_07</t>
-  </si>
-  <si>
     <t>Logout</t>
   </si>
   <si>
@@ -610,9 +577,6 @@
     <t>5. Click 'Signup'.</t>
   </si>
   <si>
-    <t>3. Focus on password field.</t>
-  </si>
-  <si>
     <t xml:space="preserve">3. Enter invalid email. </t>
   </si>
   <si>
@@ -637,9 +601,6 @@
     <t xml:space="preserve">3. Leave fields empty. </t>
   </si>
   <si>
-    <t xml:space="preserve">3. Enter SQL code in fields. </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Login as valid user. </t>
   </si>
   <si>
@@ -770,6 +731,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 2. Observe order summary (items, total, shipping, etc.).</t>
+  </si>
+  <si>
+    <t>TC_Signup_05</t>
   </si>
 </sst>
 </file>
@@ -825,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -842,6 +806,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139:G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,631 +1172,661 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>186</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>173</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="E7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>185</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>188</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
       <c r="E11" t="s">
-        <v>189</v>
+        <v>173</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
       <c r="E13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>185</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
-        <v>190</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
       <c r="E16" t="s">
-        <v>191</v>
+        <v>173</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="E17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
       <c r="E18" t="s">
-        <v>184</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>192</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
-        <v>197</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
       <c r="E21" t="s">
-        <v>191</v>
+        <v>173</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="E22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
       <c r="E23" t="s">
-        <v>184</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
-        <v>185</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E25" t="s">
-        <v>193</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
       <c r="E26" t="s">
-        <v>194</v>
+        <v>173</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
-        <v>195</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="E28" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" t="s">
-        <v>39</v>
-      </c>
       <c r="E29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
-        <v>192</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E31" t="s">
-        <v>196</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
       <c r="E33" t="s">
-        <v>198</v>
-      </c>
-      <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
-        <v>185</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
-        <v>199</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" t="s">
-        <v>48</v>
-      </c>
       <c r="E39" t="s">
-        <v>184</v>
-      </c>
-      <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" t="s">
-        <v>50</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
-        <v>185</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
-        <v>200</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E42" t="s">
-        <v>201</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" t="s">
-        <v>48</v>
-      </c>
       <c r="E44" t="s">
-        <v>184</v>
-      </c>
-      <c r="F44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" t="s">
-        <v>55</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>185</v>
       </c>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
-        <v>197</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E47" t="s">
-        <v>201</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" t="s">
-        <v>48</v>
-      </c>
       <c r="E49" t="s">
-        <v>184</v>
-      </c>
-      <c r="F49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" t="s">
-        <v>55</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
-        <v>185</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
-        <v>202</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E52" t="s">
-        <v>201</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" t="s">
+        <v>186</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" t="s">
-        <v>48</v>
-      </c>
       <c r="E54" t="s">
-        <v>198</v>
-      </c>
-      <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
-        <v>203</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
-        <v>204</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E57" t="s">
-        <v>201</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" t="s">
+        <v>193</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" t="s">
-        <v>48</v>
-      </c>
       <c r="E59" t="s">
-        <v>198</v>
-      </c>
-      <c r="F59" t="s">
-        <v>66</v>
-      </c>
-      <c r="G59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E60" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E61" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
       <c r="E62" t="s">
-        <v>201</v>
+        <v>173</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="E63" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D64" t="s">
-        <v>71</v>
-      </c>
       <c r="E64" t="s">
-        <v>206</v>
-      </c>
-      <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>72</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
-        <v>207</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="F65" s="7"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
@@ -1837,33 +1840,40 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D68" t="s">
-        <v>76</v>
-      </c>
       <c r="E68" t="s">
-        <v>184</v>
-      </c>
-      <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>77</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E69" t="s">
-        <v>208</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="F69" s="7"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
@@ -1877,43 +1887,75 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" t="s">
+        <v>200</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G71" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" t="s">
         <v>24</v>
       </c>
-      <c r="E72" t="s">
-        <v>184</v>
-      </c>
-      <c r="F72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E73" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
-        <v>212</v>
+        <v>202</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G74" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E75" t="s">
-        <v>211</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="F75" s="7"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
@@ -1929,36 +1971,38 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>184</v>
-      </c>
-      <c r="F77" t="s">
-        <v>86</v>
+        <v>204</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="G77" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E78" t="s">
-        <v>209</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="F78" s="7"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
-        <v>210</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="F79" s="7"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
@@ -1974,166 +2018,167 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>213</v>
-      </c>
-      <c r="F81" t="s">
-        <v>81</v>
+        <v>207</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G81" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E82" t="s">
-        <v>214</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="F82" s="7"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
+      <c r="E83" t="s">
+        <v>208</v>
+      </c>
+      <c r="F83" s="7"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>92</v>
-      </c>
-      <c r="B84" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D86" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" t="s">
+        <v>209</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E84" t="s">
-        <v>215</v>
-      </c>
-      <c r="F84" t="s">
-        <v>95</v>
-      </c>
-      <c r="G84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E85" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
+      <c r="G86" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>97</v>
-      </c>
-      <c r="B87" t="s">
-        <v>98</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
+        <v>210</v>
+      </c>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" t="s">
+        <v>103</v>
+      </c>
+      <c r="E90" t="s">
+        <v>186</v>
+      </c>
+      <c r="F90" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E87" t="s">
-        <v>217</v>
-      </c>
-      <c r="F87" t="s">
-        <v>100</v>
-      </c>
-      <c r="G87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E88" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E89" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="G90" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>102</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="E91" t="s">
+        <v>211</v>
+      </c>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93" t="s">
         <v>103</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E93" t="s">
+        <v>212</v>
+      </c>
+      <c r="F93" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E91" t="s">
-        <v>220</v>
-      </c>
-      <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E92" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E93" t="s">
-        <v>221</v>
+      <c r="G93" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E94" t="s">
-        <v>211</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="F94" s="7"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
@@ -2149,31 +2194,32 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D96" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E96" t="s">
-        <v>222</v>
-      </c>
-      <c r="F96" t="s">
+        <v>212</v>
+      </c>
+      <c r="F96" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G96" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E97" t="s">
-        <v>223</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="F97" s="7"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
@@ -2187,113 +2233,122 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" t="s">
+        <v>116</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>111</v>
-      </c>
-      <c r="B100" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D100" t="s">
-        <v>114</v>
-      </c>
-      <c r="E100" t="s">
-        <v>198</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D101" t="s">
+        <v>103</v>
+      </c>
+      <c r="E101" t="s">
+        <v>212</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E102" t="s">
+        <v>215</v>
+      </c>
+      <c r="F102" s="7"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E103" t="s">
+        <v>216</v>
+      </c>
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>123</v>
+      </c>
+      <c r="B105" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" t="s">
         <v>24</v>
       </c>
-      <c r="G100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E101" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>116</v>
-      </c>
-      <c r="B103" t="s">
-        <v>117</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D103" t="s">
-        <v>114</v>
-      </c>
-      <c r="E103" t="s">
-        <v>225</v>
-      </c>
-      <c r="F103" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E104" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+      <c r="E105" t="s">
+        <v>219</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G105" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>120</v>
-      </c>
-      <c r="B106" t="s">
-        <v>121</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D106" t="s">
-        <v>114</v>
-      </c>
       <c r="E106" t="s">
-        <v>225</v>
-      </c>
-      <c r="F106" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" t="s">
-        <v>123</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="F106" s="7"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E107" t="s">
-        <v>226</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="F107" s="7"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
@@ -2309,116 +2364,91 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D109" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="E109" t="s">
-        <v>127</v>
-      </c>
-      <c r="F109" t="s">
+        <v>220</v>
+      </c>
+      <c r="F109" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G109" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
+      <c r="E110" t="s">
+        <v>221</v>
+      </c>
+      <c r="F110" s="7"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>129</v>
-      </c>
-      <c r="B111" t="s">
-        <v>130</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D111" t="s">
-        <v>114</v>
-      </c>
       <c r="E111" t="s">
-        <v>225</v>
-      </c>
-      <c r="F111" t="s">
-        <v>132</v>
-      </c>
-      <c r="G111" t="s">
-        <v>133</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="F111" s="7"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E112" t="s">
-        <v>228</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="F112" s="7"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E113" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115" t="s">
         <v>134</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="D115" t="s">
+        <v>103</v>
+      </c>
+      <c r="E115" t="s">
+        <v>220</v>
+      </c>
+      <c r="F115" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D115" t="s">
-        <v>24</v>
-      </c>
-      <c r="E115" t="s">
-        <v>232</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>137</v>
-      </c>
-      <c r="G115" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E116" t="s">
-        <v>231</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="F116" s="7"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E117" t="s">
-        <v>230</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="F117" s="7"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
@@ -2434,22 +2464,22 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>138</v>
+      </c>
+      <c r="B119" t="s">
         <v>139</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="D119" t="s">
         <v>141</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="E119" t="s">
-        <v>233</v>
-      </c>
-      <c r="F119" t="s">
-        <v>24</v>
       </c>
       <c r="G119" t="s">
         <v>143</v>
@@ -2457,63 +2487,97 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E120" t="s">
-        <v>234</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F120" s="7"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E121" t="s">
-        <v>235</v>
-      </c>
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D122" t="s">
+        <v>147</v>
+      </c>
       <c r="E122" t="s">
-        <v>236</v>
+        <v>228</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
+      <c r="E123" t="s">
+        <v>229</v>
+      </c>
+      <c r="F123" s="7"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B125" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D125" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="E125" t="s">
-        <v>233</v>
-      </c>
-      <c r="F125" t="s">
-        <v>147</v>
+        <v>173</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G125" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E126" t="s">
-        <v>237</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="F126" s="7"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E127" t="s">
-        <v>238</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="F127" s="7"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
@@ -2529,115 +2593,119 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B129" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D129" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E129" t="s">
-        <v>239</v>
-      </c>
-      <c r="F129" t="s">
-        <v>153</v>
+        <v>220</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G129" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E130" t="s">
-        <v>240</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="F130" s="7"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
+      <c r="E131" t="s">
+        <v>232</v>
+      </c>
+      <c r="F131" s="7"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>155</v>
-      </c>
-      <c r="B132" t="s">
-        <v>156</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
+        <v>233</v>
+      </c>
+      <c r="F132" s="7"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>158</v>
       </c>
-      <c r="E132" t="s">
-        <v>241</v>
-      </c>
-      <c r="F132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" t="s">
+      <c r="B134" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E133" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
+      <c r="C134" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D134" t="s">
+        <v>141</v>
+      </c>
+      <c r="E134" t="s">
+        <v>234</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G134" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>160</v>
-      </c>
-      <c r="B135" t="s">
-        <v>161</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
+        <v>227</v>
+      </c>
+      <c r="F135" s="7"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>163</v>
       </c>
-      <c r="E135" t="s">
-        <v>184</v>
-      </c>
-      <c r="F135" t="s">
-        <v>24</v>
-      </c>
-      <c r="G135" t="s">
+      <c r="B137" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E136" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C137" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D137" t="s">
+        <v>141</v>
+      </c>
       <c r="E137" t="s">
-        <v>238</v>
+        <v>166</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G137" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -2654,170 +2722,80 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B139" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D139" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E139" t="s">
-        <v>233</v>
-      </c>
-      <c r="F139" t="s">
+        <v>235</v>
+      </c>
+      <c r="F139" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G139" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E140" t="s">
-        <v>244</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="F140" s="7"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E141" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E142" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>169</v>
-      </c>
-      <c r="B144" t="s">
-        <v>170</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D144" t="s">
-        <v>152</v>
-      </c>
-      <c r="E144" t="s">
-        <v>247</v>
-      </c>
-      <c r="F144" t="s">
-        <v>172</v>
-      </c>
-      <c r="G144" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E145" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>174</v>
-      </c>
-      <c r="B147" t="s">
-        <v>175</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D147" t="s">
-        <v>152</v>
-      </c>
-      <c r="E147" t="s">
-        <v>177</v>
-      </c>
-      <c r="F147" t="s">
-        <v>178</v>
-      </c>
-      <c r="G147" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>180</v>
-      </c>
-      <c r="B149" t="s">
-        <v>181</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D149" t="s">
-        <v>152</v>
-      </c>
-      <c r="E149" t="s">
-        <v>248</v>
-      </c>
-      <c r="F149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E150" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="F115:F117"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="F125:F127"/>
+    <mergeCell ref="F129:F132"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F101:F103"/>
+    <mergeCell ref="F105:F107"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="F81:F84"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="F32:F35"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/AutomationExercise_TestCases.xlsx
+++ b/src/main/AutomationExercise_TestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh\IdeaProjects\AutomationExercise\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED11676E-477C-42C4-8F11-1D1E841C2BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8D0914-BE02-471C-97B7-8AEBEBCF9B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="222">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -310,18 +310,6 @@
     <t>TC_Prod_07</t>
   </si>
   <si>
-    <t>Product image zoom</t>
-  </si>
-  <si>
-    <t>Zoom product image if feature present</t>
-  </si>
-  <si>
-    <t>On product details page</t>
-  </si>
-  <si>
-    <t>Image zooms in/out as expected</t>
-  </si>
-  <si>
     <t>TC_Cart_01</t>
   </si>
   <si>
@@ -340,15 +328,6 @@
     <t>TC_Cart_02</t>
   </si>
   <si>
-    <t>Check product count in cart</t>
-  </si>
-  <si>
-    <t>Validate the number of products in the cart</t>
-  </si>
-  <si>
-    <t>Correct product count is shown</t>
-  </si>
-  <si>
     <t>TC_Cart_03</t>
   </si>
   <si>
@@ -379,12 +358,6 @@
     <t>TC_Cart_05</t>
   </si>
   <si>
-    <t>Update product quantity in cart</t>
-  </si>
-  <si>
-    <t>Change product quantity in cart and verify total</t>
-  </si>
-  <si>
     <t>New Quantity</t>
   </si>
   <si>
@@ -448,57 +421,12 @@
     <t>On checkout page</t>
   </si>
   <si>
-    <t>User/Payment/Shipping Details</t>
-  </si>
-  <si>
-    <t>Order confirmation page is shown</t>
-  </si>
-  <si>
     <t>TC_Checkout_03</t>
   </si>
   <si>
-    <t>Verify order confirmation</t>
-  </si>
-  <si>
-    <t>Ensure confirmation is shown after order is placed</t>
-  </si>
-  <si>
-    <t>Order placed</t>
-  </si>
-  <si>
-    <t>Order confirmation message is displayed</t>
-  </si>
-  <si>
     <t>TC_Checkout_04</t>
   </si>
   <si>
-    <t>Checkout with empty cart</t>
-  </si>
-  <si>
-    <t>Try to checkout with an empty cart</t>
-  </si>
-  <si>
-    <t>Cart is empty</t>
-  </si>
-  <si>
-    <t>Message: 'Cart is empty' or checkout is disabled</t>
-  </si>
-  <si>
-    <t>TC_Checkout_05</t>
-  </si>
-  <si>
-    <t>Checkout with incomplete details</t>
-  </si>
-  <si>
-    <t>Attempt to checkout leaving required details blank</t>
-  </si>
-  <si>
-    <t>Validation errors for required fields</t>
-  </si>
-  <si>
-    <t>TC_Checkout_06</t>
-  </si>
-  <si>
     <t>Payment with invalid card</t>
   </si>
   <si>
@@ -511,36 +439,6 @@
     <t>Payment error message is shown</t>
   </si>
   <si>
-    <t>TC_Checkout_07</t>
-  </si>
-  <si>
-    <t>Payment field input mask</t>
-  </si>
-  <si>
-    <t>Check payment fields only accept appropriate formats</t>
-  </si>
-  <si>
-    <t>1. Try entering letters/symbols in card number or CVV.</t>
-  </si>
-  <si>
-    <t>Invalid Card Input</t>
-  </si>
-  <si>
-    <t>Only numeric input accepted; error for invalid chars</t>
-  </si>
-  <si>
-    <t>TC_Checkout_08</t>
-  </si>
-  <si>
-    <t>Order summary review</t>
-  </si>
-  <si>
-    <t>Review order summary before confirming order</t>
-  </si>
-  <si>
-    <t>All details listed before order placement</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Launch application. </t>
   </si>
   <si>
@@ -604,9 +502,6 @@
     <t xml:space="preserve">1. Login as valid user. </t>
   </si>
   <si>
-    <t>2. Click 'Logout' on dashboard/home.</t>
-  </si>
-  <si>
     <t>2. Click each navigation link (e.g., Products, Cart, Signup/Login, Contact).</t>
   </si>
   <si>
@@ -649,24 +544,9 @@
     <t xml:space="preserve">3. Leave search box empty. </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Open product details. </t>
-  </si>
-  <si>
-    <t>2. Hover/click on image to zoom.</t>
-  </si>
-  <si>
-    <t>2. Click 'Cart' from navigation or after adding product.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. View cart. </t>
   </si>
   <si>
-    <t>2. Click remove/delete on a product.</t>
-  </si>
-  <si>
-    <t>2. Count items in cart.</t>
-  </si>
-  <si>
     <t xml:space="preserve">2. Change quantity for a product. </t>
   </si>
   <si>
@@ -676,12 +556,6 @@
     <t>3. View cart.</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Add first product  to cart. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Add second product to cart. </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Add products to cart. </t>
   </si>
   <si>
@@ -694,46 +568,124 @@
     <t>4. View cart.</t>
   </si>
   <si>
-    <t xml:space="preserve">2. View cart. </t>
-  </si>
-  <si>
-    <t>3. Click 'Proceed to Checkout'.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Enter all required details (address, payment, etc.). </t>
   </si>
   <si>
     <t>2. Place order.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Place order. </t>
-  </si>
-  <si>
-    <t>2. Observe confirmation page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Click 'Cart'. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Go to checkout. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Leave address/payment details blank. </t>
-  </si>
-  <si>
-    <t>4. Place order.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Enter invalid card number/expiry/CVV. </t>
   </si>
   <si>
-    <t>1. Go to checkout.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. Observe order summary (items, total, shipping, etc.).</t>
-  </si>
-  <si>
     <t>TC_Signup_05</t>
+  </si>
+  <si>
+    <t>Add product to cart negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add product to cart with invalid quantity</t>
+  </si>
+  <si>
+    <t>Product, Invalid Quantity</t>
+  </si>
+  <si>
+    <t>Message 'Invalid Product Quantity' or similar is shown</t>
+  </si>
+  <si>
+    <t>2. Click 'Cart' from navigation.</t>
+  </si>
+  <si>
+    <t>1.  Launch Application</t>
+  </si>
+  <si>
+    <t>3. Count items in cart.</t>
+  </si>
+  <si>
+    <t>4. Click remove/delete on a product.</t>
+  </si>
+  <si>
+    <t>Caunt cart Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Add product to cart. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Add second product  to cart. </t>
+  </si>
+  <si>
+    <t>Verify cart contains product(s).</t>
+  </si>
+  <si>
+    <t>Checkout without Login</t>
+  </si>
+  <si>
+    <t>Attempt to Checkout without Login.</t>
+  </si>
+  <si>
+    <t>Not Loged in</t>
+  </si>
+  <si>
+    <t>1. Launch Application.</t>
+  </si>
+  <si>
+    <t>2. Click 'Cart' from Navigation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Click on 'Checkout' </t>
+  </si>
+  <si>
+    <t>Message 'Please Login/register' or similar is shown.</t>
+  </si>
+  <si>
+    <t>TC_Cart_08</t>
+  </si>
+  <si>
+    <t>User Loged In</t>
+  </si>
+  <si>
+    <t>Verify Total Price is correct according to unit price and Quantity.</t>
+  </si>
+  <si>
+    <t>Verify product Prices in cart</t>
+  </si>
+  <si>
+    <t>4. Click 'Proceed to Checkout'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. View cart. </t>
+  </si>
+  <si>
+    <t>2. add product(s) to cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login </t>
+  </si>
+  <si>
+    <t>Payment Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart page displays listed products </t>
+  </si>
+  <si>
+    <t>2. Click on 'Logout'</t>
+  </si>
+  <si>
+    <t>3. Observe confirmation page.</t>
+  </si>
+  <si>
+    <t>Order confirmation page is Displayed</t>
+  </si>
+  <si>
+    <t>Payment with Empty Fields</t>
+  </si>
+  <si>
+    <t>Attempt payment with Empty credit card details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Click 'place order'</t>
+  </si>
+  <si>
+    <t>1. leave the cart details Empty</t>
   </si>
 </sst>
 </file>
@@ -789,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -811,11 +763,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139:G140"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="57" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1129,10 +1092,10 @@
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
@@ -1184,825 +1147,840 @@
         <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>195</v>
-      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="E7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="8"/>
+        <v>140</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F9" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="E10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="E15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="E16" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="E20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>185</v>
-      </c>
-      <c r="F23" s="7"/>
+        <v>147</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
-        <v>180</v>
-      </c>
-      <c r="F24" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="E25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>237</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E26" t="s">
-        <v>173</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E27" t="s">
-        <v>174</v>
-      </c>
-      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
-        <v>182</v>
-      </c>
-      <c r="F28" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
-        <v>183</v>
-      </c>
-      <c r="F29" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" s="7"/>
+        <v>149</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="E31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>13</v>
       </c>
-      <c r="E32" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="E33" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
-        <v>187</v>
-      </c>
-      <c r="F34" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
-        <v>180</v>
-      </c>
-      <c r="F35" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="E36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>42</v>
       </c>
-      <c r="E38" t="s">
-        <v>173</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="E39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E39" t="s">
-        <v>174</v>
-      </c>
-      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
-        <v>188</v>
-      </c>
-      <c r="F40" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
-        <v>189</v>
-      </c>
-      <c r="F41" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="E42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>42</v>
       </c>
-      <c r="E43" t="s">
-        <v>173</v>
-      </c>
-      <c r="F43" s="7" t="s">
+      <c r="E44" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E44" t="s">
-        <v>174</v>
-      </c>
-      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
-        <v>185</v>
-      </c>
-      <c r="F45" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
-        <v>189</v>
-      </c>
-      <c r="F46" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="E47" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>42</v>
       </c>
-      <c r="E48" t="s">
-        <v>173</v>
-      </c>
-      <c r="F48" s="7" t="s">
+      <c r="E49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G49" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E49" t="s">
-        <v>174</v>
-      </c>
-      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
-        <v>190</v>
-      </c>
-      <c r="F50" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
-        <v>189</v>
-      </c>
-      <c r="F51" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="E52" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>42</v>
       </c>
-      <c r="E53" t="s">
-        <v>186</v>
-      </c>
-      <c r="F53" s="7" t="s">
+      <c r="E54" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G54" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E54" t="s">
-        <v>191</v>
-      </c>
-      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
-        <v>192</v>
-      </c>
-      <c r="F55" s="7"/>
+        <v>157</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
-        <v>189</v>
-      </c>
-      <c r="F56" s="7"/>
+        <v>158</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="E57" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>60</v>
       </c>
-      <c r="E58" t="s">
-        <v>193</v>
-      </c>
-      <c r="F58" s="7" t="s">
+      <c r="E59" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G59" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F59" s="7"/>
-    </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="E60" t="s">
+        <v>215</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="13"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" t="s">
         <v>24</v>
       </c>
-      <c r="E62" t="s">
-        <v>173</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E63" t="s">
-        <v>196</v>
-      </c>
-      <c r="F63" s="7"/>
+        <v>172</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
-        <v>199</v>
-      </c>
-      <c r="F64" s="7"/>
+        <v>161</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
-        <v>198</v>
-      </c>
-      <c r="F65" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="E66" t="s">
+        <v>163</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>72</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D69" t="s">
         <v>24</v>
       </c>
-      <c r="E67" t="s">
-        <v>173</v>
-      </c>
-      <c r="F67" s="7" t="s">
+      <c r="E69" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G69" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E68" t="s">
-        <v>196</v>
-      </c>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E69" t="s">
-        <v>197</v>
-      </c>
-      <c r="F69" s="7"/>
-    </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="E70" t="s">
+        <v>161</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="E71" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="B71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" t="s">
         <v>24</v>
       </c>
-      <c r="E71" t="s">
-        <v>200</v>
-      </c>
-      <c r="F71" s="7" t="s">
+      <c r="E73" t="s">
+        <v>139</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E72" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="G73" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D74" t="s">
-        <v>24</v>
-      </c>
       <c r="E74" t="s">
-        <v>202</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G74" t="s">
-        <v>85</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E75" t="s">
-        <v>203</v>
-      </c>
-      <c r="F75" s="7"/>
+        <v>164</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="E76" t="s">
+        <v>163</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>86</v>
-      </c>
-      <c r="B77" t="s">
-        <v>87</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" t="s">
         <v>24</v>
       </c>
-      <c r="E77" t="s">
-        <v>204</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E78" t="s">
-        <v>205</v>
-      </c>
-      <c r="F78" s="7"/>
+        <v>165</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
-        <v>206</v>
-      </c>
-      <c r="F79" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
@@ -2018,167 +1996,167 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>207</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>94</v>
+        <v>167</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E82" t="s">
-        <v>196</v>
-      </c>
-      <c r="F82" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E83" t="s">
-        <v>208</v>
-      </c>
-      <c r="F83" s="7"/>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="E84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F84" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="E85" t="s">
+        <v>170</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="E86" t="s">
+        <v>171</v>
+      </c>
+      <c r="F86" s="10"/>
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>95</v>
       </c>
-      <c r="B86" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" t="s">
-        <v>98</v>
-      </c>
-      <c r="E86" t="s">
-        <v>209</v>
-      </c>
-      <c r="F86" s="7" t="s">
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" t="s">
         <v>24</v>
       </c>
-      <c r="G86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E87" t="s">
-        <v>210</v>
-      </c>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
+      <c r="E88" t="s">
+        <v>169</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>100</v>
-      </c>
-      <c r="B90" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D90" t="s">
-        <v>103</v>
-      </c>
       <c r="E90" t="s">
-        <v>186</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>104</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E91" t="s">
-        <v>211</v>
-      </c>
-      <c r="F91" s="7"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D93" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E93" t="s">
-        <v>212</v>
-      </c>
-      <c r="F93" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F93" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G93" t="s">
-        <v>108</v>
+      <c r="G93" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E94" t="s">
-        <v>214</v>
-      </c>
-      <c r="F94" s="7"/>
+        <v>190</v>
+      </c>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
@@ -2194,114 +2172,117 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D96" t="s">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="E96" t="s">
-        <v>212</v>
-      </c>
-      <c r="F96" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F96" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G96" t="s">
-        <v>112</v>
+      <c r="G96" s="10" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E97" t="s">
-        <v>213</v>
-      </c>
-      <c r="F97" s="7"/>
+        <v>190</v>
+      </c>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>113</v>
-      </c>
-      <c r="B99" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
         <v>103</v>
       </c>
-      <c r="E99" t="s">
-        <v>116</v>
-      </c>
-      <c r="F99" s="9" t="s">
+      <c r="C100" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>191</v>
+      </c>
+      <c r="F100" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>118</v>
-      </c>
-      <c r="B101" t="s">
-        <v>119</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D101" t="s">
-        <v>103</v>
-      </c>
+      <c r="G100" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+    </row>
+    <row r="101" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101" s="5"/>
+      <c r="D101"/>
       <c r="E101" t="s">
-        <v>212</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G101" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+    </row>
+    <row r="102" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102" s="5"/>
+      <c r="D102"/>
       <c r="E102" t="s">
-        <v>215</v>
-      </c>
-      <c r="F102" s="7"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+    </row>
+    <row r="103" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103" s="5"/>
+      <c r="D103"/>
       <c r="E103" t="s">
-        <v>216</v>
-      </c>
-      <c r="F103" s="7"/>
+        <v>193</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
@@ -2316,139 +2297,175 @@
       <c r="J104" s="1"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>123</v>
-      </c>
-      <c r="B105" t="s">
-        <v>124</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="A105" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F105" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E105" t="s">
-        <v>219</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G105" t="s">
-        <v>127</v>
-      </c>
+      <c r="G105" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E106" t="s">
-        <v>218</v>
-      </c>
-      <c r="F106" s="7"/>
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D107" t="s">
+        <v>99</v>
+      </c>
       <c r="E107" t="s">
-        <v>217</v>
-      </c>
-      <c r="F107" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
+      <c r="E108" t="s">
+        <v>175</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>128</v>
-      </c>
-      <c r="B109" t="s">
-        <v>129</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D109" t="s">
-        <v>131</v>
-      </c>
       <c r="E109" t="s">
-        <v>220</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" t="s">
-        <v>132</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E110" t="s">
-        <v>221</v>
-      </c>
-      <c r="F110" s="7"/>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>198</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D111" t="s">
+        <v>200</v>
+      </c>
       <c r="E111" t="s">
-        <v>222</v>
-      </c>
-      <c r="F111" s="7"/>
+        <v>201</v>
+      </c>
+      <c r="F111" s="10"/>
+      <c r="G111" s="11" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E112" t="s">
-        <v>223</v>
-      </c>
-      <c r="F112" s="7"/>
+        <v>202</v>
+      </c>
+      <c r="F112" s="10"/>
+      <c r="G112" s="11"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="E113" t="s">
+        <v>203</v>
+      </c>
+      <c r="F113" s="10"/>
+      <c r="G113" s="11"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D115" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="E115" t="s">
-        <v>220</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G115" t="s">
-        <v>137</v>
+        <v>195</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E116" t="s">
-        <v>224</v>
-      </c>
-      <c r="F116" s="7"/>
+        <v>196</v>
+      </c>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E117" t="s">
-        <v>225</v>
-      </c>
-      <c r="F117" s="7"/>
+        <v>177</v>
+      </c>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
@@ -2464,173 +2481,152 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="B119" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D119" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>226</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G119" t="s">
-        <v>143</v>
+        <v>178</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E120" t="s">
-        <v>227</v>
-      </c>
-      <c r="F120" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
+      <c r="E121" t="s">
+        <v>180</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>144</v>
-      </c>
-      <c r="B122" t="s">
-        <v>145</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D122" t="s">
-        <v>147</v>
-      </c>
       <c r="E122" t="s">
-        <v>228</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s">
-        <v>148</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E123" t="s">
-        <v>229</v>
-      </c>
-      <c r="F123" s="7"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="D125" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="E125" t="s">
-        <v>173</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" t="s">
-        <v>153</v>
+        <v>212</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E126" t="s">
-        <v>230</v>
-      </c>
-      <c r="F126" s="7"/>
+        <v>211</v>
+      </c>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E127" t="s">
-        <v>225</v>
-      </c>
-      <c r="F127" s="7"/>
+        <v>210</v>
+      </c>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
+      <c r="E128" t="s">
+        <v>209</v>
+      </c>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>154</v>
-      </c>
-      <c r="B129" t="s">
-        <v>155</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D129" t="s">
-        <v>141</v>
-      </c>
-      <c r="E129" t="s">
-        <v>220</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G129" t="s">
-        <v>157</v>
-      </c>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D130" t="s">
+        <v>132</v>
+      </c>
       <c r="E130" t="s">
-        <v>231</v>
-      </c>
-      <c r="F130" s="7"/>
+        <v>182</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E131" t="s">
-        <v>232</v>
-      </c>
-      <c r="F131" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E132" t="s">
-        <v>233</v>
-      </c>
-      <c r="F132" s="7"/>
+        <v>216</v>
+      </c>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
@@ -2644,34 +2640,38 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" s="8" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D134" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E134" t="s">
-        <v>234</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G134" t="s">
-        <v>162</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E135" t="s">
-        <v>227</v>
-      </c>
-      <c r="F135" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
@@ -2687,113 +2687,108 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="D137" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E137" t="s">
-        <v>166</v>
-      </c>
-      <c r="F137" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G137" t="s">
-        <v>168</v>
+        <v>221</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
+      <c r="E138" t="s">
+        <v>220</v>
+      </c>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>169</v>
-      </c>
-      <c r="B139" t="s">
-        <v>170</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D139" t="s">
-        <v>141</v>
-      </c>
-      <c r="E139" t="s">
-        <v>235</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G139" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E140" t="s">
-        <v>236</v>
-      </c>
-      <c r="F140" s="7"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="F139:F140"/>
+  <mergeCells count="60">
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="F125:F128"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F130:F132"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F119:F122"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="F107:F109"/>
     <mergeCell ref="F115:F117"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="F125:F127"/>
-    <mergeCell ref="F129:F132"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="F73:F76"/>
     <mergeCell ref="F93:F94"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F101:F103"/>
-    <mergeCell ref="F105:F107"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="F81:F84"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="G73:G76"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="G119:G122"/>
+    <mergeCell ref="G125:G128"/>
+    <mergeCell ref="G130:G132"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="G107:G109"/>
+    <mergeCell ref="G115:G117"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
